--- a/next_week_weights_estimate_app.xlsx
+++ b/next_week_weights_estimate_app.xlsx
@@ -469,19 +469,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9999999986174113</v>
+        <v>0.999999996554006</v>
       </c>
       <c r="C2" t="n">
-        <v>4.267222441428168e-10</v>
+        <v>7.71714358019754e-10</v>
       </c>
       <c r="D2" t="n">
-        <v>5.237905277856596e-10</v>
+        <v>1.028879008512616e-09</v>
       </c>
       <c r="E2" t="n">
-        <v>4.320801486064025e-10</v>
+        <v>1.645425333346985e-09</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>46031</v>
+        <v>46038</v>
       </c>
     </row>
   </sheetData>

--- a/next_week_weights_estimate_app.xlsx
+++ b/next_week_weights_estimate_app.xlsx
@@ -469,19 +469,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.999999996554006</v>
+        <v>0.9999999812490273</v>
       </c>
       <c r="C2" t="n">
-        <v>7.71714358019754e-10</v>
+        <v>3.055467619578929e-09</v>
       </c>
       <c r="D2" t="n">
-        <v>1.028879008512616e-09</v>
+        <v>2.787152827383198e-09</v>
       </c>
       <c r="E2" t="n">
-        <v>1.645425333346985e-09</v>
+        <v>1.290841546880258e-08</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>46038</v>
+        <v>46045</v>
       </c>
     </row>
   </sheetData>

--- a/next_week_weights_estimate_app.xlsx
+++ b/next_week_weights_estimate_app.xlsx
@@ -469,19 +469,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9999999812490273</v>
+        <v>0.9999999981540072</v>
       </c>
       <c r="C2" t="n">
-        <v>3.055467619578929e-09</v>
+        <v>3.197601004086311e-10</v>
       </c>
       <c r="D2" t="n">
-        <v>2.787152827383198e-09</v>
+        <v>2.823606824254501e-10</v>
       </c>
       <c r="E2" t="n">
-        <v>1.290841546880258e-08</v>
+        <v>1.24388015780652e-09</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>46045</v>
+        <v>46052</v>
       </c>
     </row>
   </sheetData>

--- a/next_week_weights_estimate_app.xlsx
+++ b/next_week_weights_estimate_app.xlsx
@@ -469,19 +469,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9999999981540072</v>
+        <v>0.9999999984649723</v>
       </c>
       <c r="C2" t="n">
-        <v>3.197601004086311e-10</v>
+        <v>5.150631097231949e-10</v>
       </c>
       <c r="D2" t="n">
-        <v>2.823606824254501e-10</v>
+        <v>6.599353474689541e-10</v>
       </c>
       <c r="E2" t="n">
-        <v>1.24388015780652e-09</v>
+        <v>3.600186320736702e-10</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>46052</v>
+        <v>46059</v>
       </c>
     </row>
   </sheetData>

--- a/next_week_weights_estimate_app.xlsx
+++ b/next_week_weights_estimate_app.xlsx
@@ -469,19 +469,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9999999984649723</v>
+        <v>0.9999999990259346</v>
       </c>
       <c r="C2" t="n">
-        <v>5.150631097231949e-10</v>
+        <v>1.118007144738666e-10</v>
       </c>
       <c r="D2" t="n">
-        <v>6.599353474689541e-10</v>
+        <v>1.737751632210285e-10</v>
       </c>
       <c r="E2" t="n">
-        <v>3.600186320736702e-10</v>
+        <v>6.884875831429895e-10</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>46059</v>
+        <v>46066</v>
       </c>
     </row>
   </sheetData>

--- a/next_week_weights_estimate_app.xlsx
+++ b/next_week_weights_estimate_app.xlsx
@@ -469,19 +469,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9999999990259346</v>
+        <v>0.9999999991123205</v>
       </c>
       <c r="C2" t="n">
-        <v>1.118007144738666e-10</v>
+        <v>2.710008657200506e-10</v>
       </c>
       <c r="D2" t="n">
-        <v>1.737751632210285e-10</v>
+        <v>1.339493385849563e-10</v>
       </c>
       <c r="E2" t="n">
-        <v>6.884875831429895e-10</v>
+        <v>4.827292761601328e-10</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>46066</v>
+        <v>46073</v>
       </c>
     </row>
   </sheetData>

--- a/next_week_weights_estimate_app.xlsx
+++ b/next_week_weights_estimate_app.xlsx
@@ -469,19 +469,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9999999991123205</v>
+        <v>1.81285514432328e-09</v>
       </c>
       <c r="C2" t="n">
-        <v>2.710008657200506e-10</v>
+        <v>1.184464077636434e-09</v>
       </c>
       <c r="D2" t="n">
-        <v>1.339493385849563e-10</v>
+        <v>1.864478199970915e-09</v>
       </c>
       <c r="E2" t="n">
-        <v>4.827292761601328e-10</v>
+        <v>0.9999999951382343</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>46073</v>
+        <v>46080</v>
       </c>
     </row>
   </sheetData>
